--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4638510-60FC-470B-83C8-78235E5A9141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F18F2-40DD-4894-8E6E-7164A1B1DA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12735" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meteorological" sheetId="1" r:id="rId1"/>
+    <sheet name="Deposition" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Contaminant conc in precip</t>
+    <t>linear_interpolate</t>
   </si>
   <si>
-    <t>linear_interpolate</t>
+    <t>Contaminant deposition</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C10958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +406,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F18F2-40DD-4894-8E6E-7164A1B1DA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10479240-C76E-4BE2-8D1A-5034C548CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12735" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Deposition" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C10958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,15 +420,15 @@
         <v>25569</v>
       </c>
       <c r="B3" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>29221</v>
+        <v>31048</v>
       </c>
       <c r="B4" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +436,7 @@
         <v>32874</v>
       </c>
       <c r="B5" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>34700</v>
       </c>
       <c r="B6" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>36526</v>
       </c>
       <c r="B7" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10479240-C76E-4BE2-8D1A-5034C548CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5F909-5B87-44ED-B718-09F147FF9D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Deposition" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>linear_interpolate</t>
+    <t>Contaminant deposition</t>
   </si>
   <si>
-    <t>Contaminant deposition</t>
+    <t>step_interpolate</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C10958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +406,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>31048</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +436,7 @@
         <v>32874</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5F909-5B87-44ED-B718-09F147FF9D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE305C-FDCF-451D-AB7C-F6D6D3AD312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Deposition" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA20A3A-39DF-4C7C-A435-4073CB631B6D}">
-  <dimension ref="A1:C10958"/>
+  <dimension ref="A1:C10959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>31048</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,15 +481,20 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43831</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
@@ -33327,6 +33332,9 @@
     </row>
     <row r="10958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10958" s="1"/>
+    </row>
+    <row r="10959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10959" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE305C-FDCF-451D-AB7C-F6D6D3AD312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FF300-AF07-4E93-BCFD-23A3236BF832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Deposition" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C10959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>32874</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/models/data/tox_test.xlsx
+++ b/models/data/tox_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FF300-AF07-4E93-BCFD-23A3236BF832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD43FF-2871-4BE5-951E-EAEB9858B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D0E19786-DA9A-4277-8346-8F1041FBB6FD}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA20A3A-39DF-4C7C-A435-4073CB631B6D}">
-  <dimension ref="A1:C10959"/>
+  <dimension ref="A1:C10960"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,14 +489,19 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43831</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -33335,6 +33340,9 @@
     </row>
     <row r="10959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10959" s="1"/>
+    </row>
+    <row r="10960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10960" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
